--- a/nop-orm/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
+++ b/nop-orm/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy-bak\nop-orm\src\main\resources\_vfs\nop\orm\imp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm\src\main\resources\_vfs\nop\orm\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFAF22-E92E-44C1-8FBA-B50429D10FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26427221-65B8-4952-8C47-289780991FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -517,14 +517,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -535,95 +547,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1434,126 +1434,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1744,307 +1744,328 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="46"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="48">
+      <c r="A18" s="32">
         <v>1</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="38" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="38" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="15"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="38" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="38" t="s">
+      <c r="H23" s="38"/>
+      <c r="I23" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="42"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="34"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="36"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="34"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="36"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="18" t="s">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="20"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="36"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="7">
+        <v>1</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:P20"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A15:P15"/>
     <mergeCell ref="A17:P17"/>
@@ -2061,37 +2082,18 @@
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:J21"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-orm/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
+++ b/nop-orm/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm\src\main\resources\_vfs\nop\orm\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26427221-65B8-4952-8C47-289780991FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB9571B-E833-4187-85D7-6FB897CED4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="配置" sheetId="3" r:id="rId2"/>
     <sheet name="域定义" sheetId="15" r:id="rId3"/>
-    <sheet name="nop_wf_instance" sheetId="21" r:id="rId4"/>
+    <sheet name="字典定义" sheetId="22" r:id="rId4"/>
+    <sheet name="nop_wf_instance" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,13 +273,48 @@
   <si>
     <t>生成对应数据库的建表语句</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +347,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +403,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC2E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EEDA"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -462,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,16 +579,106 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,91 +690,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,10 +1516,181 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580B8EA3-49A5-40B5-854E-E1175EA60D43}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="49"/>
+      <c r="B1" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -1434,126 +1712,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1744,305 +2022,332 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+      <c r="A18" s="49">
         <v>1</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="37" t="s">
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="37" t="s">
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="15"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="37" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="38"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="37" t="s">
+      <c r="H23" s="41"/>
+      <c r="I23" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="50"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="47"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="41"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="41"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="35" t="s">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="36"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:P20"/>
     <mergeCell ref="A28:P28"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="K22:L22"/>
@@ -2059,41 +2364,14 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
